--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="2370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="mobile" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N5"/>
 </workbook>
 </file>
 
@@ -484,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -536,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
